--- a/NaMetalBatteries_GP/Data/Recs/top3.xlsx
+++ b/NaMetalBatteries_GP/Data/Recs/top3.xlsx
@@ -462,10 +462,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -486,19 +486,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.94962393429941</v>
       </c>
       <c r="M2">
-        <v>0.3842430982921599</v>
+        <v>0.1524828794128603</v>
       </c>
       <c r="N2">
-        <v>6.84136338960804E-05</v>
+        <v>0.06675998886883501</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -506,16 +506,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -530,19 +530,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99.94899913831387</v>
       </c>
       <c r="M3">
-        <v>0.3484974180761782</v>
+        <v>0.001346074200972769</v>
       </c>
       <c r="N3">
-        <v>0.001483339827883805</v>
+        <v>0.0005603536105668832</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -550,13 +550,13 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
         <v>0.2</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -574,19 +574,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.99999986209673</v>
+        <v>99.94785081139423</v>
       </c>
       <c r="M4">
-        <v>46.7812465817882</v>
+        <v>0.1089635892317524</v>
       </c>
       <c r="N4">
-        <v>0.01362187700816321</v>
+        <v>0.04076779423747495</v>
       </c>
     </row>
   </sheetData>
